--- a/Labs/Lab02/Range Sensor Calibration.xlsx
+++ b/Labs/Lab02/Range Sensor Calibration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="19440" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,24 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Distance (")</t>
   </si>
   <si>
     <t>Distance (cm)</t>
-  </si>
-  <si>
-    <t>Contact Left</t>
-  </si>
-  <si>
-    <t>Contact Right</t>
-  </si>
-  <si>
-    <t>Light Left</t>
-  </si>
-  <si>
-    <t>Light Right</t>
   </si>
   <si>
     <t>IR Left</t>
@@ -46,6 +34,18 @@
   </si>
   <si>
     <t>Range Sensor Calibration</t>
+  </si>
+  <si>
+    <t>IR Front</t>
+  </si>
+  <si>
+    <t>IR Back</t>
+  </si>
+  <si>
+    <t>Sensor Diffrences</t>
+  </si>
+  <si>
+    <t>Stand. Deviations</t>
   </si>
 </sst>
 </file>
@@ -84,15 +84,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -100,11 +106,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -114,6 +255,43 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,361 +593,500 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.39370100000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>5</v>
+      </c>
+      <c r="B4" s="13">
+        <f>A4*$J$3</f>
+        <v>1.9685050000000002</v>
+      </c>
+      <c r="C4" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="D4" s="13">
+        <v>5.351</v>
+      </c>
+      <c r="E4" s="13">
+        <v>5.15</v>
+      </c>
+      <c r="F4" s="14">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>10</v>
+      </c>
+      <c r="B5" s="13">
+        <f>A5*$J$3</f>
+        <v>3.9370100000000003</v>
+      </c>
+      <c r="C5" s="13">
+        <v>11.09</v>
+      </c>
+      <c r="D5" s="13">
+        <v>11.19</v>
+      </c>
+      <c r="E5" s="13">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="F5" s="14">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>15</v>
+      </c>
+      <c r="B6" s="13">
+        <f>A6*$J$3</f>
+        <v>5.9055150000000003</v>
+      </c>
+      <c r="C6" s="13">
+        <v>15.5</v>
+      </c>
+      <c r="D6" s="13">
+        <v>15.75</v>
+      </c>
+      <c r="E6" s="13">
+        <v>14.92</v>
+      </c>
+      <c r="F6" s="14">
+        <v>14.92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>20</v>
+      </c>
+      <c r="B7" s="13">
+        <f>A7*$J$3</f>
+        <v>7.8740200000000007</v>
+      </c>
+      <c r="C7" s="13">
+        <v>20.9</v>
+      </c>
+      <c r="D7" s="13">
+        <v>21.42</v>
+      </c>
+      <c r="E7" s="13">
+        <v>19.96</v>
+      </c>
+      <c r="F7" s="14">
+        <v>19.670000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>25</v>
+      </c>
+      <c r="B8" s="13">
+        <f>A8*$J$3</f>
+        <v>9.8425250000000002</v>
+      </c>
+      <c r="C8" s="13">
+        <v>25.5</v>
+      </c>
+      <c r="D8" s="13">
+        <v>25.98</v>
+      </c>
+      <c r="E8" s="13">
+        <v>25.25</v>
+      </c>
+      <c r="F8" s="14">
+        <v>24.79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>30</v>
+      </c>
+      <c r="B9" s="13">
+        <f>A9*$J$3</f>
+        <v>11.811030000000001</v>
+      </c>
+      <c r="C9" s="13">
+        <v>30</v>
+      </c>
+      <c r="D9" s="13">
+        <v>30</v>
+      </c>
+      <c r="E9" s="13">
+        <v>29.35</v>
+      </c>
+      <c r="F9" s="14">
+        <v>28.14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>35</v>
+      </c>
+      <c r="B10" s="13">
+        <f>A10*$J$3</f>
+        <v>13.779535000000001</v>
+      </c>
+      <c r="C10" s="13">
+        <v>37</v>
+      </c>
+      <c r="D10" s="13">
+        <v>37</v>
+      </c>
+      <c r="E10" s="13">
+        <v>34.979999999999997</v>
+      </c>
+      <c r="F10" s="14">
+        <v>34.979999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>40</v>
+      </c>
+      <c r="B11" s="13">
+        <f>A11*$J$3</f>
+        <v>15.748040000000001</v>
+      </c>
+      <c r="C11" s="13">
+        <v>41</v>
+      </c>
+      <c r="D11" s="13">
+        <v>40.630000000000003</v>
+      </c>
+      <c r="E11" s="13">
+        <v>41.85</v>
+      </c>
+      <c r="F11" s="14">
+        <v>41.23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>45</v>
+      </c>
+      <c r="B12" s="16">
+        <f>A12*$J$3</f>
+        <v>17.716545</v>
+      </c>
+      <c r="C12" s="16">
+        <v>53.98</v>
+      </c>
+      <c r="D12" s="16">
+        <v>50.12</v>
+      </c>
+      <c r="E12" s="16">
+        <v>47.57</v>
+      </c>
+      <c r="F12" s="17">
+        <v>44.53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" s="7" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="12">
+        <v>5</v>
+      </c>
+      <c r="C16" s="13">
+        <f>C4-$A4</f>
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="13">
+        <f t="shared" ref="D16:F16" si="0">D4-$A4</f>
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000036</v>
+      </c>
+      <c r="F16" s="18">
+        <f t="shared" si="0"/>
+        <v>0.26999999999999957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="12">
+        <v>10</v>
+      </c>
+      <c r="C17" s="13">
+        <f t="shared" ref="C17:F17" si="1">C5-$A5</f>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" si="1"/>
+        <v>1.1899999999999995</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="1"/>
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="F17" s="18">
+        <f t="shared" si="1"/>
+        <v>0.28999999999999915</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="12">
+        <v>15</v>
+      </c>
+      <c r="C18" s="13">
+        <f t="shared" ref="C18:F18" si="2">C6-$A6</f>
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="2"/>
+        <v>-8.0000000000000071E-2</v>
+      </c>
+      <c r="F18" s="18">
+        <f t="shared" si="2"/>
+        <v>-8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="12">
+        <v>20</v>
+      </c>
+      <c r="C19" s="13">
+        <f t="shared" ref="C19:F19" si="3">C7-$A7</f>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="D19" s="13">
+        <f t="shared" si="3"/>
+        <v>1.4200000000000017</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="3"/>
+        <v>-3.9999999999999147E-2</v>
+      </c>
+      <c r="F19" s="18">
+        <f t="shared" si="3"/>
+        <v>-0.32999999999999829</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="12">
+        <v>25</v>
+      </c>
+      <c r="C20" s="13">
+        <f t="shared" ref="C20:F20" si="4">C8-$A8</f>
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="13">
+        <f t="shared" si="4"/>
+        <v>0.98000000000000043</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="F20" s="18">
+        <f t="shared" si="4"/>
+        <v>-0.21000000000000085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="12">
+        <v>30</v>
+      </c>
+      <c r="C21" s="13">
+        <f t="shared" ref="C21:F21" si="5">C9-$A9</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="5"/>
+        <v>-0.64999999999999858</v>
+      </c>
+      <c r="F21" s="18">
+        <f t="shared" si="5"/>
+        <v>-1.8599999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="12">
+        <v>35</v>
+      </c>
+      <c r="C22" s="13">
+        <f t="shared" ref="C22:F22" si="6">C10-$A10</f>
+        <v>2</v>
+      </c>
+      <c r="D22" s="13">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="6"/>
+        <v>-2.0000000000003126E-2</v>
+      </c>
+      <c r="F22" s="18">
+        <f t="shared" si="6"/>
+        <v>-2.0000000000003126E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="12">
+        <v>40</v>
+      </c>
+      <c r="C23" s="13">
+        <f t="shared" ref="C23:F23" si="7">C11-$A11</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="13">
+        <f t="shared" si="7"/>
+        <v>0.63000000000000256</v>
+      </c>
+      <c r="E23" s="13">
+        <f t="shared" si="7"/>
+        <v>1.8500000000000014</v>
+      </c>
+      <c r="F23" s="18">
+        <f t="shared" si="7"/>
+        <v>1.2299999999999969</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="12">
+        <v>45</v>
+      </c>
+      <c r="C24" s="13">
+        <f t="shared" ref="C24:F24" si="8">C12-$A12</f>
+        <v>8.9799999999999969</v>
+      </c>
+      <c r="D24" s="13">
+        <f t="shared" si="8"/>
+        <v>5.1199999999999974</v>
+      </c>
+      <c r="E24" s="13">
+        <f t="shared" si="8"/>
+        <v>2.5700000000000003</v>
+      </c>
+      <c r="F24" s="18">
+        <f t="shared" si="8"/>
+        <v>-0.46999999999999886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="2">
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <f>A4*$M$3</f>
-        <v>2.54</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" ref="B5:B23" si="0">A5*$M$3</f>
-        <v>5.08</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>7.62</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>10.16</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>12.7</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>15.24</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>17.78</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>20.32</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>22.86</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>25.4</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>27.94</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>30.48</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>33.020000000000003</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>35.56</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>38.1</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>40.64</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>43.18</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>45.72</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>48.26</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>50.8</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="C25" s="20">
+        <f>STDEV(C16:C24)</f>
+        <v>2.7793274566180766</v>
+      </c>
+      <c r="D25" s="20">
+        <f>STDEV(D16:D24)</f>
+        <v>1.5203738027208955</v>
+      </c>
+      <c r="E25" s="20">
+        <f>STDEV(E16:E24)</f>
+        <v>1.0430936891978808</v>
+      </c>
+      <c r="F25" s="21">
+        <f>STDEV(F16:F24)</f>
+        <v>0.81819075472111591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
